--- a/2_Week5. Coding more/Resume2_5.xlsx
+++ b/2_Week5. Coding more/Resume2_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Фамилия</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Руссификация приложения (замена всех иноязычных слов русскими) (долг с прошлой недели)</t>
+  </si>
+  <si>
+    <t>2+</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,7 +540,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,7 +554,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -565,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,7 +582,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,7 +666,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,7 +699,9 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
       <c r="C16"/>
       <c r="D16" s="4"/>
     </row>
@@ -704,50 +709,66 @@
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
